--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pth2-Pth1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pth2-Pth1r.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.005346</v>
+        <v>1.751841</v>
       </c>
       <c r="N2">
-        <v>2.010692</v>
+        <v>3.503682</v>
       </c>
       <c r="O2">
-        <v>0.1338619511873397</v>
+        <v>0.213779419532536</v>
       </c>
       <c r="P2">
-        <v>0.1022062808187576</v>
+        <v>0.1765245924501479</v>
       </c>
       <c r="Q2">
-        <v>0.15297847409</v>
+        <v>0.266568885765</v>
       </c>
       <c r="R2">
-        <v>0.9178708445399998</v>
+        <v>1.59941331459</v>
       </c>
       <c r="S2">
-        <v>0.1338619511873397</v>
+        <v>0.213779419532536</v>
       </c>
       <c r="T2">
-        <v>0.1022062808187576</v>
+        <v>0.1765245924501479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>6.979523</v>
       </c>
       <c r="O3">
-        <v>0.3097747996334643</v>
+        <v>0.2839067349822242</v>
       </c>
       <c r="P3">
-        <v>0.354778895882103</v>
+        <v>0.3516464830630844</v>
       </c>
       <c r="Q3">
         <v>0.3540130390983333</v>
@@ -641,10 +641,10 @@
         <v>3.186117351885</v>
       </c>
       <c r="S3">
-        <v>0.3097747996334643</v>
+        <v>0.2839067349822242</v>
       </c>
       <c r="T3">
-        <v>0.354778895882103</v>
+        <v>0.3516464830630844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7715636666666668</v>
+        <v>0.188968</v>
       </c>
       <c r="N4">
-        <v>2.314691</v>
+        <v>0.5669040000000001</v>
       </c>
       <c r="O4">
-        <v>0.1027338029745562</v>
+        <v>0.02306000907058589</v>
       </c>
       <c r="P4">
-        <v>0.1176589743007138</v>
+        <v>0.02856209483576382</v>
       </c>
       <c r="Q4">
-        <v>0.1174049853383333</v>
+        <v>0.02875431572</v>
       </c>
       <c r="R4">
-        <v>1.056644868045</v>
+        <v>0.25878884148</v>
       </c>
       <c r="S4">
-        <v>0.1027338029745562</v>
+        <v>0.02306000907058589</v>
       </c>
       <c r="T4">
-        <v>0.1176589743007138</v>
+        <v>0.02856209483576382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.852731</v>
+        <v>2.9838935</v>
       </c>
       <c r="N5">
-        <v>3.705462</v>
+        <v>5.967787</v>
       </c>
       <c r="O5">
-        <v>0.2466913745966772</v>
+        <v>0.3641283771626004</v>
       </c>
       <c r="P5">
-        <v>0.1883538054238218</v>
+        <v>0.3006725975714379</v>
       </c>
       <c r="Q5">
-        <v>0.281920812615</v>
+        <v>0.4540441544275</v>
       </c>
       <c r="R5">
-        <v>1.69152487569</v>
+        <v>2.724264926565</v>
       </c>
       <c r="S5">
-        <v>0.2466913745966772</v>
+        <v>0.3641283771626004</v>
       </c>
       <c r="T5">
-        <v>0.1883538054238218</v>
+        <v>0.3006725975714379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8024643333333333</v>
+        <v>0.6503553333333333</v>
       </c>
       <c r="N6">
-        <v>2.407393</v>
+        <v>1.951066</v>
       </c>
       <c r="O6">
-        <v>0.1068482307765165</v>
+        <v>0.07936370118628855</v>
       </c>
       <c r="P6">
-        <v>0.1223711463511623</v>
+        <v>0.0982997687841934</v>
       </c>
       <c r="Q6">
-        <v>0.1221069852816667</v>
+        <v>0.09896131929666666</v>
       </c>
       <c r="R6">
-        <v>1.098962867535</v>
+        <v>0.89065187367</v>
       </c>
       <c r="S6">
-        <v>0.1068482307765165</v>
+        <v>0.07936370118628855</v>
       </c>
       <c r="T6">
-        <v>0.1223711463511623</v>
+        <v>0.0982997687841934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.7517066666666666</v>
+        <v>0.293054</v>
       </c>
       <c r="N7">
-        <v>2.25512</v>
+        <v>0.879162</v>
       </c>
       <c r="O7">
-        <v>0.1000898408314462</v>
+        <v>0.03576175806576498</v>
       </c>
       <c r="P7">
-        <v>0.1146308972234418</v>
+        <v>0.04429446329537239</v>
       </c>
       <c r="Q7">
-        <v>0.1143834449333333</v>
+        <v>0.04459256190999999</v>
       </c>
       <c r="R7">
-        <v>1.0294510044</v>
+        <v>0.40133305719</v>
       </c>
       <c r="S7">
-        <v>0.1000898408314462</v>
+        <v>0.03576175806576498</v>
       </c>
       <c r="T7">
-        <v>0.1146308972234418</v>
+        <v>0.04429446329537239</v>
       </c>
     </row>
   </sheetData>
